--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:49:32+00:00</t>
+    <t>2022-08-09T12:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,9 +482,7 @@
   <si>
     <t>See discussion under [Imaging Study Implementation Notes](imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.
 DICOMスタディインスタンスUIDのエンコードについては、[Imaging Study Implementation Notes]（imagingstudy.html＃notes）の説明を参照。アクセッション番号はACSN識別子タイプを使用する必要がある。
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-Study Instance UIDは必須、その他は任意。</t>
+【JP-Core仕様】Study Instance UIDは必須、その他は任意。</t>
   </si>
   <si>
     <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).
@@ -515,9 +513,7 @@
   <si>
     <t>Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.
 不明は「その他」を表すものではない。定義されたステータスの1つを適用する必要がある。不明は、オーサリングシステムが現在のステータスを確認できない場合に使用される。
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-リソースの状態。</t>
+【JP-Core仕様】リソースの状態。</t>
   </si>
   <si>
     <t>required</t>
@@ -561,8 +557,8 @@
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
 コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常にカジュアルに定義できる。詳細については、HL7v3コア原則を参照のこと。
-・モダリティのコードを設定。&lt;br/&gt;
-・Seriesの階層の(0008,0060)を集約する、または(0008,0060)　と　(0008, 0061) のOR。但し、重複する値は1つにまとめて表現。&lt;br/&gt;</t>
+・モダリティのコードを設定。
+・Seriesの階層の(0008,0060)を集約する、または(0008,0060)　と　(0008, 0061) のOR。但し、重複する値は1つにまとめて表現。</t>
   </si>
   <si>
     <t>extensible</t>
@@ -599,9 +595,9 @@
   <si>
     <t>QA phantoms can be recorded with a Device; multiple subjects (such as mice) can be recorded with a Group.
 QAファントムはデバイスで記録できる。複数の被験者（マウスなど）をグループで記録できる。
-・患者(Patient)リソースを参照。&lt;br/&gt;
-・DICOMタグ値を参照する場合は、tag mappingの通りグループ0010（患者情報に関連する情報を扱うグループ）を参照。&lt;br/&gt;
-・不明患者は、空もしくは不明を指すPatientリソースを参照。&lt;br/&gt;</t>
+・患者(Patient)リソースを参照。
+・DICOMタグ値を参照する場合は、tag mappingの通りグループ0010（患者情報に関連する情報を扱うグループ）を参照。
+・不明患者は、空もしくは不明を指すPatientリソースを参照。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -695,7 +691,7 @@
 この画像検査の実施につながった診断依頼のリスト。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 依頼元のServiceRequestを紐付ける。</t>
   </si>
@@ -733,7 +729,7 @@
 依頼紹介医師</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 依頼医師。必須ではない（ServiceRequestから参照できるため）。</t>
   </si>
@@ -758,7 +754,7 @@
 画像の読影者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 読影医</t>
   </si>
@@ -865,7 +861,7 @@
 このImagingStudyが含まれていたprocedure リソースへの参照。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 進捗状況に関するProcedureリソースを参照。</t>
   </si>
@@ -925,7 +921,7 @@
 ImagingStudyが実行された主要な物理的な場所。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 撮影室を示すLocationリソースを参照。</t>
   </si>
@@ -998,7 +994,7 @@
 このスタディーを正当化する別のリソースを示す。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 実施理由が書かれたDiagnosticReportリソースを参照。</t>
   </si>
@@ -1204,9 +1200,8 @@
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
 コードは、列挙型またはコードリストで、SNOMED CTなどの非常に正式な定義まで、非常に柔軟に定義できる。詳細については、HL7v3コア原則を参照。
 当該シリーズのモダリティコード。1シリーズ1モダリティ（1つのシリーズの中に複数のモダリティが混在することはない）。
-&lt;br/&gt;
-（参照先）&lt;br/&gt;
-ftp://medical.nema.org/medical/dicom/resources/valuesets/fhir/json/CID_29.json&lt;br/&gt;
+（参照先）
+ftp://medical.nema.org/medical/dicom/resources/valuesets/fhir/json/CID_29.json
 http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
   </si>
   <si>
@@ -1349,13 +1344,9 @@
 例えば、生検のスライド全体の画像化のために画像化された標本。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
-病理検体などを管理するための番号。
-&lt;br/&gt;
-【議論】&lt;br/&gt;
-UIDは別のtagが存在するので、ユーザー側で自由に付与していい番号と思われる。</t>
+【JP-Core仕様】UIDは別のtagが存在するので、ユーザー側で自由に付与していい番号と思われる。</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -1396,12 +1387,11 @@
   <si>
     <t>If the person who performed the series is not known, their Organization may be recorded. A patient, or related person, may be the performer, e.g. for patient-captured images.
 シリーズを行った人がわからない場合は、その組織が記録される場合がある。患者または関係者は、患者自身で取得した画像の場合など、パフォーマーである可能性がある。
-【JP-CORE】
-検査を実施した（画像を取得する操作を行った）人。&lt;br/&gt;
-　　(0008,1050)Performing Physician's Name&lt;br/&gt;
-　　(0008,1052)Performing Physician Identification Sequence&lt;br/&gt;
-　　(0008,1070)Operators' Name&lt;br/&gt;
-　　(0008,1072)Operator Identification Sequence&lt;br/&gt;</t>
+【JP-Core仕様】検査を実施した（画像を取得する操作を行った）人。
+　　(0008,1050)Performing Physician's Name
+　　(0008,1052)Performing Physician Identification Sequence
+　　(0008,1070)Operators' Name
+　　(0008,1072)Operator Identification Sequence</t>
   </si>
   <si>
     <t>The performer is recorded at the series level, since each series in a study may be performed by a different performer, at different times, and using different devices. A series may be performed by multiple performers.</t>
@@ -1453,10 +1443,8 @@
     <t>Indicates who or what performed the series.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-組織または撮影者</t>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+【JP-Core仕様】組織または撮影者</t>
   </si>
   <si>
     <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
@@ -1507,9 +1495,7 @@
   </si>
   <si>
     <t>See  [DICOM PS3.3 C.12.1](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.12.html#sect_C.12.1).
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-画像のユニークID。DICOMタグマッピングにある値をそのまま設定。</t>
+【JP-Core仕様】画像のユニークID。DICOMタグマッピングにある値をそのまま設定。</t>
   </si>
   <si>
     <t>DICOM SOP Instance UID.</t>
@@ -1535,9 +1521,7 @@
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-SOPクラスUID。DICOMタグマッピングにある値をそのまま設定。</t>
+【JP-Core仕様】SOPクラスUID。DICOMタグマッピングにある値をそのまま設定。</t>
   </si>
   <si>
     <t>The sopClass for the instance.</t>
@@ -1566,9 +1550,7 @@
   </si>
   <si>
     <t>32 bit number; for values larger than this, use decimal
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-ユーザー（または装置）が自由に決められる画像ごとの番号。DICOMタグマッピングにある値をそのまま設定。</t>
+【JP-Core仕様】ユーザー（または装置）が自由に決められる画像ごとの番号。DICOMタグマッピングにある値をそのまま設定。</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP, source[classCode=OBSSER, moodCode=EVN]].sequenceNumber</t>
@@ -1588,12 +1570,10 @@
   </si>
   <si>
     <t>Particularly for post-acquisition analytic objects, such as SR, presentation states, value mapping, etc.
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-画像に対する説明。DICOMタグマッピングにある値があれば、そのまま設定&lt;br/&gt;
-　　(0008,0008)Image Type&lt;br/&gt;
-　　(0040,A043)Concept Name Code Sequence&lt;br/&gt;
-　　(0008,0104)Code Meaning&lt;br/&gt;
+【JP-Core仕様】画像に対する説明。DICOMタグマッピングにある値があれば、そのまま設定
+　　(0008,0008)Image Type
+　　(0040,A043)Concept Name Code Sequence
+　　(0008,0104)Code Meaning
 　　(0042,0010)Document Title</t>
   </si>
   <si>
